--- a/resources/excel/bina_marga.xlsx
+++ b/resources/excel/bina_marga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f0ef5f86b9659cf/Documents/test-pupr/coba-project/E-Catalogue/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{004EFCEC-40A8-4C9D-9D53-80EFE0EE24FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{004EFCEC-40A8-4C9D-9D53-80EFE0EE24FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D181E17A-7CEC-4868-BA49-B1746C72245B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D46B41B0-210B-466E-B039-14BDA8FA6781}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Balai Besar Pelaksanaan Jalan Nasional Sumatera Utara</t>
   </si>
@@ -136,33 +136,6 @@
   </si>
   <si>
     <t>Balai Perkerasan dan Lingkungan Jalan</t>
-  </si>
-  <si>
-    <t>Sekretariat Direktorat Jenderal Bina Marga</t>
-  </si>
-  <si>
-    <t>Direktorat Bina Teknik Jalan dan Jembatan</t>
-  </si>
-  <si>
-    <t>Direktorat Kepatuhan Intern</t>
-  </si>
-  <si>
-    <t>Direktorat Sistem dan Strategi Penyelenggaraan Jalan dan Jembatan</t>
-  </si>
-  <si>
-    <t>Direktorat Pembangunan Jalan</t>
-  </si>
-  <si>
-    <t>Direktorat Pembangunan Jembatan</t>
-  </si>
-  <si>
-    <t>Direktorat Preservasi Jalan dan Jembatan Wilayah I</t>
-  </si>
-  <si>
-    <t>Direktorat Preservasi Jalan dan Jembatan Wilayah II</t>
-  </si>
-  <si>
-    <t>Direktorat Jalan Bebas Hambatan</t>
   </si>
 </sst>
 </file>
@@ -514,13 +487,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5DA92A-4ED0-476E-930D-9CD30D478EB1}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="55.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -818,78 +794,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
